--- a/data/income_statement/2digits/size/17_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/17_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>17-Manufacture of paper and paper products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>17-Manufacture of paper and paper products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,641 +841,726 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2149243.05241</v>
+        <v>2343329.91242</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2583688.60167</v>
+        <v>2701709.82597</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2842683.15083</v>
+        <v>2848905.86754</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2997800.94186</v>
+        <v>3079974.19675</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4214232.071239999</v>
+        <v>4390483.23188</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4857109.96476</v>
+        <v>5062483.531730001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4963995.80752</v>
+        <v>5263305.15041</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5601302.69922</v>
+        <v>5924209.198100001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6602715.57472</v>
+        <v>6895694.734309999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12529505.32961</v>
+        <v>12894089.87198</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>14283262.76871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14693391.60444</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>17047795.308</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1908512.15144</v>
+        <v>2066659.90205</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2305911.52492</v>
+        <v>2400207.69758</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2543936.2818</v>
+        <v>2540143.8022</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2647240.3843</v>
+        <v>2725985.54457</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3723675.8545</v>
+        <v>3888828.83452</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4257656.778630001</v>
+        <v>4458277.733309999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4389211.98439</v>
+        <v>4652862.79533</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4951357.18218</v>
+        <v>5232483.20213</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5810780.0245</v>
+        <v>6044317.737290001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10651446.59489</v>
+        <v>10963742.66823</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11689831.64515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12061266.17439</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14149622.474</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>220078.26635</v>
+        <v>255992.9999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>256209.10531</v>
+        <v>278099.06799</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>267931.31643</v>
+        <v>279618.10583</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>322402.63616</v>
+        <v>326637.8411799999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>453952.7926099999</v>
+        <v>464268.46656</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>553000.05434</v>
+        <v>557466.49752</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>519250.71214</v>
+        <v>552042.4193</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>577017.00981</v>
+        <v>609318.1166500001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>700130.47437</v>
+        <v>759550.23097</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1737281.44607</v>
+        <v>1786850.0421</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2389001.83937</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2411837.39686</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2680487.882</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>20652.63462</v>
+        <v>20677.01047</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>21567.97144</v>
+        <v>23403.0604</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>30815.5526</v>
+        <v>29143.95951</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>28157.9214</v>
+        <v>27350.811</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>36603.42412999999</v>
+        <v>37385.9308</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>46453.13179</v>
+        <v>46739.3009</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>55533.11099</v>
+        <v>58399.93578</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>72928.50722999999</v>
+        <v>82407.87932000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>91805.07585000001</v>
+        <v>91826.76604999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>140777.28865</v>
+        <v>143497.16165</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>204429.28419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>220288.03319</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>217684.952</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>47809.99035</v>
+        <v>55834.55385</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>53427.64172</v>
+        <v>61439.26009</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>56779.56969</v>
+        <v>68070.73007999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>52551.93005</v>
+        <v>67873.65404000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>108788.20006</v>
+        <v>113891.08912</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>92355.95201000001</v>
+        <v>102124.30716</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>88011.21814</v>
+        <v>100106.38776</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>104573.23685</v>
+        <v>114579.15594</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>107400.92521</v>
+        <v>106012.55292</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>188144.80469</v>
+        <v>193832.59197</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>240649.88425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>250082.1725</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>289637.903</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>18905.90789</v>
+        <v>19125.26121</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>20399.10931</v>
+        <v>20768.45611</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>24100.6695</v>
+        <v>23526.30025</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>25608.62473</v>
+        <v>25076.17732</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>32759.0092</v>
+        <v>32325.54371</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>41832.08493</v>
+        <v>42839.92694</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>40575.19029</v>
+        <v>44078.88464</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>57734.63738</v>
+        <v>60439.54174</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>62152.81525</v>
+        <v>64275.95297</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>99771.93782000001</v>
+        <v>103592.05949</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>114615.43296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>117600.8385</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>174262.359</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>25580.6311</v>
+        <v>32953.95861</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>30455.25104</v>
+        <v>37594.96101</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>30258.47781</v>
+        <v>42137.00933</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>23522.90848</v>
+        <v>39552.17469000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>72097.35034999999</v>
+        <v>77649.95342999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>44357.64522999999</v>
+        <v>52109.70366</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>42049.92734</v>
+        <v>49858.3823</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>38952.68636</v>
+        <v>45776.8871</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>37777.20518</v>
+        <v>33910.54426</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>60176.87175999999</v>
+        <v>61064.94465</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>97256.49888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>101917.07235</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>93529.181</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>3323.45136</v>
+        <v>3755.33403</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2573.28137</v>
+        <v>3075.84297</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2420.42238</v>
+        <v>2407.4205</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3420.39684</v>
+        <v>3245.30203</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3931.84051</v>
+        <v>3915.59198</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6166.22185</v>
+        <v>7174.676560000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5386.10051</v>
+        <v>6169.12082</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>7885.91311</v>
+        <v>8362.7271</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>7470.904779999999</v>
+        <v>7826.055689999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>28195.99511</v>
+        <v>29175.58783</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>28777.95241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>30564.26165</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>21846.363</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2101433.06206</v>
+        <v>2287495.35857</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2530260.959950001</v>
+        <v>2640270.56588</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2785903.58114</v>
+        <v>2780835.13746</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2945249.01181</v>
+        <v>3012100.54271</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4105443.87118</v>
+        <v>4276592.14276</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4764754.01275</v>
+        <v>4960359.22457</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4875984.58938</v>
+        <v>5163198.76265</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5496729.46237</v>
+        <v>5809630.04216</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6495314.649509999</v>
+        <v>6789682.18139</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>12341360.52492</v>
+        <v>12700257.28001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14042612.88446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14443309.43194</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>16758157.405</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1755787.18206</v>
+        <v>1913967.72845</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2104808.21709</v>
+        <v>2208066.50799</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2354898.46743</v>
+        <v>2346621.83396</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2476051.30419</v>
+        <v>2535869.64672</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3432556.32813</v>
+        <v>3580813.357640001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3972545.07745</v>
+        <v>4143502.01502</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4110560.87764</v>
+        <v>4340587.43395</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4603198.1877</v>
+        <v>4867253.42913</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5502675.492140001</v>
+        <v>5744612.3425</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10251641.2924</v>
+        <v>10529353.69754</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11724633.61368</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12046285.97055</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>14123630.422</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1538282.00447</v>
+        <v>1683400.33819</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1903336.42269</v>
+        <v>1998389.29454</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2115618.11107</v>
+        <v>2117668.39034</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2222689.95247</v>
+        <v>2280052.70782</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3031183.24968</v>
+        <v>3152147.85158</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3510002.53181</v>
+        <v>3645479.96338</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3588473.08254</v>
+        <v>3827548.2154</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4036662.197</v>
+        <v>4209627.24225</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>4706661.75043</v>
+        <v>4928824.7042</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>9346040.455370001</v>
+        <v>9619877.786290001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10447730.1429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10757485.86474</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>12349596.329</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>197871.04735</v>
+        <v>208228.00962</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>175695.0135</v>
+        <v>175644.20691</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>209600.87496</v>
+        <v>199308.89778</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>214748.95108</v>
+        <v>204904.19289</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>301850.1540800001</v>
+        <v>296972.13762</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>416189.90187</v>
+        <v>420023.66791</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>482385.1558</v>
+        <v>478816.28938</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>515605.685</v>
+        <v>609115.38436</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>741485.3312200001</v>
+        <v>761707.99986</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>826493.95109</v>
+        <v>830744.52011</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1169682.84953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1169682.83541</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1587722.994</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>15168.93617</v>
+        <v>17111.62993</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>19801.83776</v>
+        <v>23164.67443</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>24163.1851</v>
+        <v>24001.39303</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>31556.44058</v>
+        <v>43639.32066</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>74545.58382</v>
+        <v>103949.80161</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>32880.25652</v>
+        <v>61437.4797</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>28238.84853</v>
+        <v>22357.01723</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>32075.72274</v>
+        <v>28652.22195</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>45723.56927</v>
+        <v>44451.27626000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>37267.49066</v>
+        <v>36754.58051</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>52448.924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>50283.9308</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>73800.774</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4465.19407</v>
+        <v>5227.75071</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5974.943139999999</v>
+        <v>10868.33211</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5516.2963</v>
+        <v>5643.15281</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>7055.960059999999</v>
+        <v>7273.42535</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>24977.34055</v>
+        <v>27743.56683</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>13472.38725</v>
+        <v>16560.90403</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>11463.79077</v>
+        <v>11865.91194</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>18854.58296</v>
+        <v>19858.58057</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>8804.841219999998</v>
+        <v>9628.36218</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>41839.39528</v>
+        <v>41976.81062999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>54771.69725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>68833.33959999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>112510.325</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>345645.88</v>
+        <v>373527.63012</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>425452.7428599999</v>
+        <v>432204.05789</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>431005.11371</v>
+        <v>434213.3035</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>469197.70762</v>
+        <v>476230.89599</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>672887.5430500001</v>
+        <v>695778.7851199999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>792208.9353000001</v>
+        <v>816857.2095499999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>765423.7117400001</v>
+        <v>822611.3287000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>893531.2746700001</v>
+        <v>942376.61303</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>992639.15737</v>
+        <v>1045069.83889</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2089719.23252</v>
+        <v>2170903.58247</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2317979.27078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2397023.46139</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2634526.983</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>220632.38415</v>
+        <v>261113.24017</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>273165.19132</v>
+        <v>290082.00997</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>260163.09986</v>
+        <v>268811.98614</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>289254.0927100001</v>
+        <v>305931.39081</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>461468.34431</v>
+        <v>463826.27643</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>499215.68213</v>
+        <v>498836.4860800001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>501596.28819</v>
+        <v>523037.22545</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>581436.5550599999</v>
+        <v>601015.8047999999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>589244.3408100001</v>
+        <v>614885.9641699999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>991023.9990900001</v>
+        <v>1007437.44923</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1236107.13388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1255790.24788</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1287069.515</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1096.88876</v>
+        <v>1420.26845</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>194.39446</v>
@@ -1583,22 +1569,22 @@
         <v>1470.79674</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>81.53667</v>
+        <v>106.55969</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>661.9844300000001</v>
+        <v>590.0231199999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5646.9319</v>
+        <v>5727.14903</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>968.26428</v>
+        <v>1558.28269</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>3088.33912</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1544.71927</v>
+        <v>1565.90992</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>1895.6827</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>5202.35366</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2859.176</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>110067.66626</v>
+        <v>135281.43116</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>131559.55172</v>
+        <v>145986.17518</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>118389.32464</v>
+        <v>128428.46664</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>127059.94074</v>
+        <v>137651.10314</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>239504.7152</v>
+        <v>243659.83403</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>226970.55972</v>
+        <v>230631.20017</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>232288.58982</v>
+        <v>242767.61394</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>263954.36738</v>
+        <v>276604.50135</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>248263.15916</v>
+        <v>266132.18617</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>479676.66383</v>
+        <v>497894.8581</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>599024.44709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>608162.9258199999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>621927.194</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>109467.82913</v>
+        <v>124411.54056</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>141411.24514</v>
+        <v>143901.44033</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>140302.97848</v>
+        <v>138912.72276</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>162112.6153</v>
+        <v>168173.72798</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>221301.64468</v>
+        <v>219576.41928</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>266598.19051</v>
+        <v>262478.13688</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>268339.43409</v>
+        <v>278711.32882</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>314393.84856</v>
+        <v>321322.96433</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>339436.46238</v>
+        <v>347187.86808</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>509451.65256</v>
+        <v>507646.90843</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>631880.33313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>642424.9684</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>662283.145</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>125013.49585</v>
+        <v>112414.38995</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>152287.55154</v>
+        <v>142122.04792</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>170842.01385</v>
+        <v>165401.31736</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>179943.61491</v>
+        <v>170299.50518</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>211419.19874</v>
+        <v>231952.50869</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>292993.25317</v>
+        <v>318020.72347</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>263827.42355</v>
+        <v>299574.10325</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>312094.71961</v>
+        <v>341360.80823</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>403394.81656</v>
+        <v>430183.87472</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1098695.23343</v>
+        <v>1163466.13324</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1081872.1369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1141233.21351</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1347457.468</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>51733.03739</v>
+        <v>71492.40359999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>52123.78545</v>
+        <v>61243.48668</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>45933.5819</v>
+        <v>48605.87039</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>53217.85057</v>
+        <v>67985.02986</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>77839.79201999999</v>
+        <v>105185.48588</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>90804.72528</v>
+        <v>99902.95633</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>163816.21168</v>
+        <v>179489.75381</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>122597.85834</v>
+        <v>121986.35239</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>143721.42513</v>
+        <v>155393.54876</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>962495.2176400002</v>
+        <v>960585.43227</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>535953.2368899999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>503111.6331</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>783762.895</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2.69926</v>
@@ -1787,121 +1798,136 @@
         <v>181.42606</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2134.33017</v>
+        <v>129.92517</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2004.405</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2004.405</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2857.82028</v>
+        <v>853.4152800000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>10358.623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4042.6499</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>86.672</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>41.77925</v>
+        <v>1625.42035</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>46.64479</v>
+        <v>688.45876</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>109.0375</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1007.65725</v>
+        <v>109.0375</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>570.79137</v>
+        <v>494.62177</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>314.41281</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2876.88427</v>
+        <v>2779.57673</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4942.759400000001</v>
+        <v>3348.5519</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>4319.73727</v>
+        <v>2725.52977</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>4168.87922</v>
+        <v>35.68505</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>21063.10232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>5923.831990000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1525.793</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>4506.83928</v>
+        <v>8760.32519</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4075.63073</v>
+        <v>4864.653939999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>3334.43044</v>
+        <v>4647.03607</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>5840.10704</v>
+        <v>7641.206050000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>6326.67586</v>
+        <v>8398.202589999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>7094.66018</v>
+        <v>7090.02247</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8094.21045</v>
+        <v>7652.317859999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>11076.10772</v>
+        <v>10266.29415</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>13783.52975</v>
+        <v>13956.99907</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>30924.41016</v>
+        <v>25812.33845</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>45582.28365999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>45048.86981</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>34319.321</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>316.09766</v>
+        <v>218.6578</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>298.64448</v>
+        <v>119.69996</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>492.6754100000001</v>
+        <v>481.75023</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>367.41958</v>
+        <v>339.637</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>191.54017</v>
+        <v>174.42709</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>327.34148</v>
+        <v>327.24148</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>477.6227</v>
@@ -1910,7 +1936,7 @@
         <v>406.99953</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>360.60853</v>
+        <v>360.88891</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>299.03958</v>
@@ -1918,143 +1944,163 @@
       <c r="M29" s="48" t="n">
         <v>206.86658</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1586.414</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1701.70108</v>
+        <v>1761.18288</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1675.70121</v>
+        <v>2335.13929</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>999.21505</v>
+        <v>862.06097</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>890.56947</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1978.73222</v>
+        <v>1979.73222</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2194.21935</v>
+        <v>2935.33849</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>9432.582370000002</v>
+        <v>9061.294910000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1876.22309</v>
+        <v>1850.87774</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1490.77723</v>
+        <v>1394.1322</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>6282.08041</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8278.217930000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>7933.2833</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>22943.158</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>801.884</v>
+        <v>574.1720899999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>753.0762099999999</v>
+        <v>740.21857</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>697.29929</v>
+        <v>554.2639200000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>755.5629</v>
+        <v>756.7057600000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1045.53023</v>
+        <v>1140.02548</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>789.4912999999999</v>
+        <v>819.852</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>22435.6055</v>
+        <v>24332.0652</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1587.10908</v>
+        <v>1580.26702</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1153.49531</v>
+        <v>1153.26897</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>26140.79215</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3562.56168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3479.48576</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>12736.254</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>36751.33991999999</v>
+        <v>48831.92861</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>37059.56034</v>
+        <v>43734.18584000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>30082.10057</v>
+        <v>31557.05059</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>32633.49818</v>
+        <v>42598.57781</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>50764.49695</v>
+        <v>73043.60826000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>61358.02928</v>
+        <v>68579.88212000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>100397.65508</v>
+        <v>118106.83738</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>79175.52033</v>
+        <v>83707.92331</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>92373.17106000001</v>
+        <v>105432.5188</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>820490.05253</v>
+        <v>830632.387</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>380686.41748</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>369814.48196</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>643903.554</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>245.22251</v>
+        <v>367.1497</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>297.5934</v>
+        <v>348.86162</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>120.14918</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>736.01367</v>
+        <v>401.71966</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1922.27042</v>
+        <v>1924.44407</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>3824.82495</v>
@@ -2072,13 +2118,18 @@
         <v>11594.91485</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>15992.38244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>17411.63529</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>3608.131</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>44.685</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>324.018</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>7365.474429999999</v>
+        <v>9350.86772</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>7887.59129</v>
+        <v>8382.9257</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>10087.84777</v>
+        <v>10263.69524</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>10827.96717</v>
+        <v>15088.5213</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>15010.07146</v>
+        <v>18000.74106</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>14720.31987</v>
+        <v>15829.95595</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>16041.18784</v>
+        <v>15023.98056</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>19254.28701</v>
+        <v>18550.99156</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>27008.23709</v>
+        <v>29142.74715</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>59737.22846</v>
+        <v>58934.7795</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>50178.0968</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>49205.84351</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>62729.58</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>65577.54025999999</v>
+        <v>72082.77705000002</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>46965.9371</v>
+        <v>49773.51271</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>67492.99101000001</v>
+        <v>68748.43081000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>52220.03185</v>
+        <v>58338.73574</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>102684.726</v>
+        <v>151165.57435</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>90512.64455</v>
+        <v>100190.20788</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>168405.60816</v>
+        <v>198614.9044</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>141651.85873</v>
+        <v>148845.68994</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>163707.0988</v>
+        <v>191119.31864</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1052750.74014</v>
+        <v>1071224.5264</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>507118.19999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>502265.5665</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>734107.907</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1720.78242</v>
+        <v>1660.11851</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2449.58476</v>
+        <v>2395.1303</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1779.95553</v>
+        <v>1748.79222</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1641.6512</v>
+        <v>1538.96537</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1240.30507</v>
+        <v>1310.19454</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3057.54791</v>
+        <v>3061.29264</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1524.72875</v>
+        <v>1668.94486</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3623.1428</v>
+        <v>4359.83755</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4399.953509999999</v>
+        <v>5274.85906</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>12970.09118</v>
+        <v>12968.46904</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>19945.97847</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>10196.359</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>15846.70398</v>
+        <v>14719.1733</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6071.19226</v>
+        <v>6039.578109999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3751.763840000001</v>
+        <v>3791.28036</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>15668.85134</v>
+        <v>16420.82549</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9087.916580000001</v>
+        <v>8939.694660000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>12377.60812</v>
+        <v>14048.17855</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>21117.36035</v>
+        <v>21186.73824</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>16781.4857</v>
+        <v>15301.9005</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>11974.75039</v>
+        <v>11362.47171</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>22891.50921</v>
+        <v>23297.2527</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>44636.31040000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>44959.58897</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>66052.09699999999</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>188.91337</v>
@@ -2288,16 +2364,16 @@
         <v>1821.59151</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>1191.3297</v>
+        <v>1204.32483</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>725.33539</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>570.05124</v>
+        <v>6546.40682</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0.00069</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>107.78465</v>
@@ -2308,62 +2384,72 @@
       <c r="M39" s="48" t="n">
         <v>149.915</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>40193.37912999999</v>
+        <v>47200.52983</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>31929.40151</v>
+        <v>34888.05563</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>52897.80557</v>
+        <v>54271.01112</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>27054.21372</v>
+        <v>33131.71812</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>82769.08877</v>
+        <v>131584.53637</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>65203.77251</v>
+        <v>73080.90486999998</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>131362.95662</v>
+        <v>155499.05028</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>113515.21177</v>
+        <v>122072.68826</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>134278.49487</v>
+        <v>160502.32866</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>979081.64594</v>
+        <v>999568.7947999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>401709.17527</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>396204.79328</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>624932.496</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>54.65969</v>
+        <v>149.47244</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>414.42081</v>
+        <v>474.45798</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>380.21534</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>896.8386400000001</v>
+        <v>819.90162</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>2251.0244</v>
@@ -2384,13 +2470,18 @@
         <v>14204.30113</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>16041.79396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>18603.04265</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>3471.327</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>7573.10167</v>
+        <v>8164.569600000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5687.72677</v>
+        <v>5562.679700000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>8290.210859999999</v>
+        <v>8164.0919</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5136.885439999999</v>
+        <v>4605.73363</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6145.061479999999</v>
+        <v>5875.79955</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5051.25046</v>
+        <v>5177.36627</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>11767.00204</v>
+        <v>11650.25504</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5454.236180000001</v>
+        <v>4833.48204</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>11285.64159</v>
+        <v>12211.40077</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>23591.7412</v>
+        <v>21174.25725</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>24635.02689</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>22402.24813</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>29455.602</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>65141.70406</v>
+        <v>76685.73580999998</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>53534.30563</v>
+        <v>63381.22714</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>65312.74124</v>
+        <v>62008.64229</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>81218.53712000001</v>
+        <v>87631.06271</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>100028.72602</v>
+        <v>130427.23093</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>114429.36391</v>
+        <v>129121.31288</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>144786.24325</v>
+        <v>159621.51883</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>158070.57996</v>
+        <v>170520.4354</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>182532.87212</v>
+        <v>196357.14956</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>542887.80576</v>
+        <v>601197.78948</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>472732.13679</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>502700.10268</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>428839.598</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>60058.05043</v>
+        <v>70691.32081</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>50476.49267</v>
+        <v>59696.51936</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>61813.04427</v>
+        <v>58557.70567</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>74256.46210999999</v>
+        <v>79346.64041000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>94621.61008</v>
+        <v>117314.05825</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>109642.69914</v>
+        <v>123211.07767</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>138146.47603</v>
+        <v>153887.43925</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>150994.54183</v>
+        <v>164424.39557</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>170361.98598</v>
+        <v>185029.31325</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>460703.74539</v>
+        <v>545689.2937200001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>440911.43803</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>472644.35185</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>399457.065</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>5083.65363</v>
+        <v>5994.415</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3057.81296</v>
+        <v>3684.70778</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3499.69697</v>
+        <v>3450.93662</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>6962.07501</v>
+        <v>8284.4223</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5407.115940000001</v>
+        <v>13113.17268</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4786.664769999999</v>
+        <v>5910.23521</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>6639.767220000001</v>
+        <v>5734.07958</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7076.03813</v>
+        <v>6096.03983</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12170.88614</v>
+        <v>11327.83631</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>82184.06037000001</v>
+        <v>55508.49576000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>31820.69876</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>30055.75083</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>29382.533</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>46027.28892</v>
+        <v>35138.28069000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>103911.09426</v>
+        <v>90210.79475</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>83969.86350000001</v>
+        <v>83250.11465</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>99722.89650999999</v>
+        <v>92314.73659</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>86545.53874</v>
+        <v>55545.18929000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>178855.96999</v>
+        <v>188612.15904</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>114451.78382</v>
+        <v>120827.43383</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>134970.13926</v>
+        <v>143981.03528</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>200876.27077</v>
+        <v>198100.95528</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>465551.90517</v>
+        <v>451629.24963</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>637975.03701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>639379.1774299999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>968272.858</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12210.08373</v>
+        <v>15185.88691</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>26194.37272</v>
+        <v>24584.26968</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>16193.24821</v>
+        <v>15680.18998</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>29007.70523</v>
+        <v>29579.25946</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>25339.78486</v>
+        <v>23538.33064</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>25892.92737</v>
+        <v>22427.06204</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>38650.58398</v>
+        <v>37368.98415</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>62802.79304</v>
+        <v>62249.07948000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>45463.02697</v>
+        <v>45115.9495</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>182748.87362</v>
+        <v>158733.43084</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>136373.77234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>69409.90007</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>94100.588</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>878.8484</v>
+        <v>2033.33006</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1029.47473</v>
+        <v>1031.63735</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>3110.31608</v>
+        <v>2965.28127</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1030.50898</v>
+        <v>109.71584</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>337.28267</v>
+        <v>321.10634</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>476.38425</v>
+        <v>478.17805</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>139.09779</v>
+        <v>122.94382</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>595.35794</v>
+        <v>582.6049399999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>407.26686</v>
+        <v>403.51715</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>438.91365</v>
+        <v>431.66217</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1941.50805</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1869.7054</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1487.443</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>11331.23533</v>
+        <v>13152.55685</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>25164.89799</v>
+        <v>23552.63233</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>13082.93213</v>
+        <v>12714.90871</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>27977.19625</v>
+        <v>29469.54362</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>25002.50219</v>
+        <v>23217.2243</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>25416.54312</v>
+        <v>21948.88399</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>38511.48619</v>
+        <v>37246.04033</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>62207.4351</v>
+        <v>61666.47454</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>45055.76011</v>
+        <v>44712.43235</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>182309.95997</v>
+        <v>158301.76867</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>134432.26429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>67540.19467</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>92613.145</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>35407.55573</v>
+        <v>44200.84384</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>14117.21847</v>
+        <v>17368.11871</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>66273.33229999999</v>
+        <v>61967.58134</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>22436.2443</v>
+        <v>30427.25069</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>32424.67507</v>
+        <v>37455.16351</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>54984.22181</v>
+        <v>52900.59408</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>23224.07738</v>
+        <v>21540.28783</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>89797.85829999999</v>
+        <v>86613.5232</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>27284.87865999999</v>
+        <v>28069.42242</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>87478.69098</v>
+        <v>76531.07797999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>63854.88676000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>44872.12562999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>61147.504</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4035.76583</v>
+        <v>7733.612990000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2742.0015</v>
+        <v>4963.862230000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1791.00237</v>
+        <v>2767.4112</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1636.97812</v>
+        <v>14025.55327</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>6025.213070000001</v>
+        <v>16409.66331</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>7448.12276</v>
+        <v>9292.827210000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4749.37016</v>
+        <v>4246.467590000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6397.384970000001</v>
+        <v>11847.4277</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2063.12325</v>
+        <v>2642.78265</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6720.32719</v>
+        <v>5527.8927</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>13906.62543</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>10274.99196</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1130.762</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>799.7452099999999</v>
+        <v>4030.02601</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1133.17528</v>
+        <v>1146.28143</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1523.42963</v>
+        <v>1521.20112</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>602.26297</v>
+        <v>583.2487699999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>464.45302</v>
+        <v>449.47537</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4807.863310000001</v>
+        <v>4630.00833</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1898.10952</v>
+        <v>1743.77447</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2714.10597</v>
+        <v>2448.69111</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2317.57613</v>
+        <v>1607.56254</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1727.20822</v>
+        <v>1565.99106</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2242.67164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>800.14447</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1328.568</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>30572.04469</v>
+        <v>32437.20484</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>10242.04169</v>
+        <v>11257.97505</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>62958.90029999999</v>
+        <v>57678.96902</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>20197.00321</v>
+        <v>15818.44865</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>25935.00898</v>
+        <v>20596.02483</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>42728.23574</v>
+        <v>38977.75854</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>16576.5977</v>
+        <v>15550.04577</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>80686.36736</v>
+        <v>72317.40439</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>22904.17928</v>
+        <v>23819.07723</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>79031.15557</v>
+        <v>69437.19422</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>47705.58969000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>33796.9892</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>58688.174</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>22829.81692</v>
+        <v>6123.32376</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>115988.24851</v>
+        <v>97426.94572</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>33889.77941</v>
+        <v>36962.72329</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>106294.35744</v>
+        <v>91466.74536</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>79460.64853000001</v>
+        <v>41628.35642</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>149764.67555</v>
+        <v>158138.627</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>129878.29042</v>
+        <v>136656.13015</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>107975.074</v>
+        <v>119616.59156</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>219054.41908</v>
+        <v>215147.48236</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>560822.0878099999</v>
+        <v>533831.60249</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>710493.9225900001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>663916.95187</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1001225.942</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>14654.66071</v>
+        <v>14676.19529</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>22615.24094</v>
+        <v>23485.83401</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>19137.76826</v>
+        <v>19818.08204</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25645.04433</v>
+        <v>25603.16718</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>26372.68633</v>
+        <v>26018.90355</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>40956.55344</v>
+        <v>39874.15666</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>33949.71745</v>
+        <v>35773.09397</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>36333.3116</v>
+        <v>36819.23355</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>45715.71115</v>
+        <v>48033.55106000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>111603.17118</v>
+        <v>106313.64625</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>147360.17397</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>145318.13053</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>192118.716</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>8175.15621</v>
+        <v>-8552.871529999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>93373.00757</v>
+        <v>73941.11171000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>14752.01115</v>
+        <v>17144.64125</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>80649.31311</v>
+        <v>65863.57818</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>53087.9622</v>
+        <v>15609.45287</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>108808.12211</v>
+        <v>118264.47034</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>95928.57296999999</v>
+        <v>100883.03618</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>71641.76240000001</v>
+        <v>82797.35801000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>173338.70793</v>
+        <v>167113.9313</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>449218.91663</v>
+        <v>427517.95624</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>563133.74862</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>518598.82134</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>809107.226</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>189</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>197</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>219</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>237</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>259</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="I59" s="35" t="n">
+        <v>265</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>285</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>305</v>
       </c>
-      <c r="J59" s="35" t="n">
-        <v>334</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>360</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>251</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>